--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2224043.808691399</v>
+        <v>2188663.373969698</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7361966.055782026</v>
+        <v>7361966.055782024</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7603684.450371202</v>
+        <v>7603684.450371201</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.92882890167886</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>25.58810603624128</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,67 +737,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>47.73673492061303</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="D3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="V3" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -825,67 +825,67 @@
         <v>54.19701966463789</v>
       </c>
       <c r="E4" t="n">
-        <v>16.32206764769464</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>54.19701966463789</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.77440971783335</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>47.07745778605062</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540836</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="G5" t="n">
         <v>54.19701966463789</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>54.19701966463789</v>
-      </c>
-      <c r="U5" t="n">
-        <v>40.4428714400722</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>54.19701966463789</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>47.73673492061304</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>47.73673492061304</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>54.19701966463789</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.547657929861283</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>16.32206764769463</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118.1505544713415</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>81.91837949398575</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>14.85476540383092</v>
+        <v>96.1138677632548</v>
       </c>
       <c r="H8" t="n">
-        <v>118.1505544713415</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.1505544713415</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>118.1505544713415</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="U9" t="n">
-        <v>118.1505544713415</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>9.372028617266858</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>118.1505544713415</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.0670083783575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>118.1505544713415</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>84.37801704792679</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>45.9881624524335</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>4.613408978813447</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>152.5223218189375</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>55.97983816907735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>75.58489397041653</v>
       </c>
       <c r="T11" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.50623208355</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.2917907515943</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>95.31032463304048</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>169.7318546237109</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.0188232547115</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>266.5156869820017</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H14" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.97983816907735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.714014505568</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>171.8088205620535</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1736,10 +1736,10 @@
         <v>49.28281404613732</v>
       </c>
       <c r="S15" t="n">
-        <v>155.3758183558542</v>
+        <v>155.3758183558548</v>
       </c>
       <c r="T15" t="n">
-        <v>195.4343982340645</v>
+        <v>195.4343982340639</v>
       </c>
       <c r="U15" t="n">
         <v>224.6090573663165</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1821887834319</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>128.3927968208128</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>79.32740083458727</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I17" t="n">
-        <v>130.1402161960266</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T17" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>115.7704528554953</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>68.78695553461418</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>235.5833432507232</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>328.9746071918664</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H20" t="n">
-        <v>67.35295194186156</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.97983816907737</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S20" t="n">
         <v>174.714014505568</v>
@@ -2137,13 +2137,13 @@
         <v>216.980993107702</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>165.3721256103449</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -2180,7 +2180,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I21" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2283,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R22" t="n">
-        <v>145.8195582697328</v>
+        <v>40.99613207072809</v>
       </c>
       <c r="S22" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.7124403105487</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>84.21867929814101</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>168.992661169366</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>118.1271821712405</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.9798381690774</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S23" t="n">
         <v>174.714014505568</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S24" t="n">
         <v>155.3758183558542</v>
@@ -2456,7 +2456,7 @@
         <v>224.6090573663165</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396559</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.41377105177701</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>95.31032463304057</v>
       </c>
       <c r="U25" t="n">
         <v>286.0188232547115</v>
@@ -2541,7 +2541,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>66.89655358126333</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>82.14984360793771</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
         <v>324.1439237596927</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.9798381690774</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>96.03734496098716</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246014</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S27" t="n">
         <v>155.3758183558542</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.41377105177701</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>100.0527794017397</v>
+        <v>89.964487056012</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>187.0724430061945</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>107.5046516404414</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.9798381690774</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S29" t="n">
         <v>174.714014505568</v>
@@ -2848,19 +2848,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2879,7 +2879,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071736</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -2891,7 +2891,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S30" t="n">
         <v>155.3758183558542</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>62.76184613756473</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>235.5833432507231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>208.7262712040017</v>
       </c>
       <c r="F32" t="n">
-        <v>395.8087404091695</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I33" t="n">
-        <v>61.32090000246038</v>
+        <v>61.32090000246037</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.28281404613734</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S33" t="n">
-        <v>155.3758183558542</v>
+        <v>155.3758183558544</v>
       </c>
       <c r="T33" t="n">
         <v>195.4343982340639</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6090573663165</v>
+        <v>224.6090573663164</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>62.76184613756473</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.41377105177701</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.97902576903573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>265.4045184352941</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.131628226510427</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H36" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322543</v>
       </c>
       <c r="I36" t="n">
         <v>61.32090000246037</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T37" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0188232547115</v>
+        <v>230.0382375678739</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>127.2766901581304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -3511,19 +3511,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>133.0657736631809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>108.6371100856233</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084784</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>55.80490824636399</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>54.34458585657304</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>208.3000671285685</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>97.49887537337356</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3824,7 +3824,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746457</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>66.30644089446433</v>
+        <v>55.19613804388774</v>
       </c>
       <c r="I43" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.413771051777</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>71.6013762009336</v>
       </c>
       <c r="F44" t="n">
-        <v>255.9514315950836</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S44" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>171.0255839274012</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>128.4665504535167</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>155.6167075772034</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.70811398162736</v>
+        <v>27.37405048118535</v>
       </c>
       <c r="C2" t="n">
-        <v>26.70811398162736</v>
+        <v>27.37405048118535</v>
       </c>
       <c r="D2" t="n">
-        <v>26.70811398162736</v>
+        <v>27.37405048118535</v>
       </c>
       <c r="E2" t="n">
-        <v>26.70811398162736</v>
+        <v>27.37405048118535</v>
       </c>
       <c r="F2" t="n">
-        <v>19.34057511239419</v>
+        <v>20.00651161195218</v>
       </c>
       <c r="G2" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="H2" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I2" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J2" t="n">
         <v>4.335761573171031</v>
@@ -4336,13 +4336,13 @@
         <v>57.99081104116254</v>
       </c>
       <c r="L2" t="n">
-        <v>57.99081104116254</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="M2" t="n">
-        <v>105.459032490443</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="N2" t="n">
-        <v>105.459032490443</v>
+        <v>111.6458605091541</v>
       </c>
       <c r="O2" t="n">
         <v>159.1140819584346</v>
@@ -4357,25 +4357,25 @@
         <v>216.7880786585516</v>
       </c>
       <c r="S2" t="n">
-        <v>216.7880786585516</v>
+        <v>191.6074434043305</v>
       </c>
       <c r="T2" t="n">
-        <v>162.0436143508365</v>
+        <v>191.6074434043305</v>
       </c>
       <c r="U2" t="n">
-        <v>162.0436143508365</v>
+        <v>136.8629790966154</v>
       </c>
       <c r="V2" t="n">
-        <v>136.1970425970574</v>
+        <v>136.8629790966154</v>
       </c>
       <c r="W2" t="n">
-        <v>81.4525782893424</v>
+        <v>82.1185147889004</v>
       </c>
       <c r="X2" t="n">
-        <v>81.4525782893424</v>
+        <v>27.37405048118535</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.70811398162736</v>
+        <v>27.37405048118535</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.5691544963162</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="C3" t="n">
-        <v>113.8246901886011</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08022588088608</v>
+        <v>4.335761573171031</v>
       </c>
       <c r="I3" t="n">
         <v>4.335761573171031</v>
@@ -4415,13 +4415,13 @@
         <v>65.38412188764744</v>
       </c>
       <c r="L3" t="n">
-        <v>65.38412188764744</v>
+        <v>119.039171355639</v>
       </c>
       <c r="M3" t="n">
-        <v>65.38412188764744</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="N3" t="n">
-        <v>109.4779797225685</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="O3" t="n">
         <v>163.1330291905601</v>
@@ -4433,28 +4433,28 @@
         <v>216.7880786585516</v>
       </c>
       <c r="R3" t="n">
-        <v>216.7880786585516</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="S3" t="n">
-        <v>216.7880786585516</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="T3" t="n">
-        <v>216.7880786585516</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="U3" t="n">
-        <v>216.7880786585516</v>
+        <v>107.2991500431215</v>
       </c>
       <c r="V3" t="n">
-        <v>216.7880786585516</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="W3" t="n">
-        <v>216.7880786585516</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="X3" t="n">
-        <v>216.7880786585516</v>
+        <v>52.55468573540642</v>
       </c>
       <c r="Y3" t="n">
-        <v>216.7880786585516</v>
+        <v>52.55468573540642</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.0560915141895</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="C4" t="n">
-        <v>185.0560915141895</v>
+        <v>130.3116272064745</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3116272064745</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="E4" t="n">
-        <v>113.8246901886011</v>
+        <v>75.56716289875945</v>
       </c>
       <c r="F4" t="n">
-        <v>59.08022588088608</v>
+        <v>20.8226985910444</v>
       </c>
       <c r="G4" t="n">
-        <v>59.08022588088608</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="H4" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="I4" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="J4" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K4" t="n">
         <v>4.335761573171031</v>
@@ -4533,7 +4533,7 @@
         <v>185.0560915141895</v>
       </c>
       <c r="Y4" t="n">
-        <v>185.0560915141895</v>
+        <v>130.3116272064745</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.44776475011925</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="C5" t="n">
-        <v>66.44776475011925</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="D5" t="n">
-        <v>66.44776475011925</v>
+        <v>162.0436143508365</v>
       </c>
       <c r="E5" t="n">
-        <v>66.44776475011925</v>
+        <v>114.4906266881591</v>
       </c>
       <c r="F5" t="n">
-        <v>59.08022588088608</v>
+        <v>59.74616238044408</v>
       </c>
       <c r="G5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="H5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="I5" t="n">
-        <v>4.335761573171031</v>
+        <v>5.001698072729027</v>
       </c>
       <c r="J5" t="n">
         <v>4.335761573171031</v>
       </c>
       <c r="K5" t="n">
-        <v>4.335761573171031</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="L5" t="n">
-        <v>51.80398302245153</v>
+        <v>55.82293025457702</v>
       </c>
       <c r="M5" t="n">
-        <v>51.80398302245153</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="N5" t="n">
-        <v>105.459032490443</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="O5" t="n">
-        <v>159.1140819584346</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="P5" t="n">
-        <v>212.7691314264261</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Q5" t="n">
         <v>216.7880786585516</v>
@@ -4597,22 +4597,22 @@
         <v>216.7880786585516</v>
       </c>
       <c r="T5" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="U5" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="V5" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="W5" t="n">
+        <v>216.7880786585516</v>
+      </c>
+      <c r="X5" t="n">
         <v>162.0436143508365</v>
       </c>
-      <c r="U5" t="n">
-        <v>121.1922290578343</v>
-      </c>
-      <c r="V5" t="n">
-        <v>121.1922290578343</v>
-      </c>
-      <c r="W5" t="n">
-        <v>66.44776475011925</v>
-      </c>
-      <c r="X5" t="n">
-        <v>66.44776475011925</v>
-      </c>
       <c r="Y5" t="n">
-        <v>66.44776475011925</v>
+        <v>162.0436143508365</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.335761573171031</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="C6" t="n">
-        <v>4.335761573171031</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="D6" t="n">
-        <v>4.335761573171031</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="E6" t="n">
-        <v>4.335761573171031</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="F6" t="n">
-        <v>4.335761573171031</v>
+        <v>168.5691544963162</v>
       </c>
       <c r="G6" t="n">
-        <v>4.335761573171031</v>
+        <v>113.8246901886011</v>
       </c>
       <c r="H6" t="n">
-        <v>4.335761573171031</v>
+        <v>59.08022588088608</v>
       </c>
       <c r="I6" t="n">
         <v>4.335761573171031</v>
@@ -4652,13 +4652,13 @@
         <v>65.38412188764744</v>
       </c>
       <c r="L6" t="n">
-        <v>119.039171355639</v>
+        <v>109.4779797225685</v>
       </c>
       <c r="M6" t="n">
-        <v>119.039171355639</v>
+        <v>163.1330291905601</v>
       </c>
       <c r="N6" t="n">
-        <v>163.1330291905601</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="O6" t="n">
         <v>216.7880786585516</v>
@@ -4673,25 +4673,25 @@
         <v>216.7880786585516</v>
       </c>
       <c r="S6" t="n">
-        <v>168.5691544963162</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="T6" t="n">
-        <v>168.5691544963162</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="U6" t="n">
-        <v>113.8246901886011</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="V6" t="n">
-        <v>59.08022588088608</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="W6" t="n">
-        <v>4.335761573171031</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="X6" t="n">
-        <v>4.335761573171031</v>
+        <v>216.7880786585516</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.335761573171031</v>
+        <v>216.7880786585516</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="C7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="D7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="E7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="F7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="G7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="H7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="I7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="J7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="K7" t="n">
         <v>4.335761573171031</v>
@@ -4755,22 +4755,22 @@
         <v>20.8226985910444</v>
       </c>
       <c r="T7" t="n">
-        <v>20.8226985910444</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="U7" t="n">
-        <v>20.8226985910444</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="V7" t="n">
-        <v>20.8226985910444</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="W7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="X7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.335761573171031</v>
+        <v>19.25940775280068</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.914229054373</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="C8" t="n">
-        <v>151.1683911816601</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="D8" t="n">
-        <v>151.1683911816601</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="E8" t="n">
-        <v>151.1683911816601</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="F8" t="n">
-        <v>143.8008523124269</v>
+        <v>107.202695769644</v>
       </c>
       <c r="G8" t="n">
-        <v>128.7960387732038</v>
+        <v>10.11798085726536</v>
       </c>
       <c r="H8" t="n">
-        <v>9.452044357707319</v>
+        <v>10.11798085726536</v>
       </c>
       <c r="I8" t="n">
-        <v>9.452044357707319</v>
+        <v>10.11798085726536</v>
       </c>
       <c r="J8" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="K8" t="n">
-        <v>13.56877032489714</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="L8" t="n">
-        <v>130.5378192515252</v>
+        <v>9.549823092772243</v>
       </c>
       <c r="M8" t="n">
-        <v>247.5068681781533</v>
+        <v>126.5188720194009</v>
       </c>
       <c r="N8" t="n">
-        <v>364.4759171047813</v>
+        <v>243.4879209460295</v>
       </c>
       <c r="O8" t="n">
-        <v>364.4759171047813</v>
+        <v>360.4569698726582</v>
       </c>
       <c r="P8" t="n">
-        <v>472.6022178853659</v>
+        <v>468.5832706532428</v>
       </c>
       <c r="Q8" t="n">
-        <v>472.6022178853659</v>
+        <v>472.6022178853682</v>
       </c>
       <c r="R8" t="n">
-        <v>353.2582234698694</v>
+        <v>353.2582234698712</v>
       </c>
       <c r="S8" t="n">
-        <v>353.2582234698694</v>
+        <v>233.9142290543742</v>
       </c>
       <c r="T8" t="n">
-        <v>353.2582234698694</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="U8" t="n">
-        <v>353.2582234698694</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="V8" t="n">
-        <v>353.2582234698694</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="W8" t="n">
-        <v>353.2582234698694</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="X8" t="n">
-        <v>353.2582234698694</v>
+        <v>114.5702346388771</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.2582234698694</v>
+        <v>114.5702346388771</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="C9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="D9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="E9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="F9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="G9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="H9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="I9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="J9" t="n">
-        <v>16.84535520419222</v>
+        <v>16.84535520419227</v>
       </c>
       <c r="K9" t="n">
-        <v>133.8144041308203</v>
+        <v>16.84535520419227</v>
       </c>
       <c r="L9" t="n">
-        <v>133.8144041308203</v>
+        <v>16.84535520419227</v>
       </c>
       <c r="M9" t="n">
-        <v>157.4859520158119</v>
+        <v>133.8144041308209</v>
       </c>
       <c r="N9" t="n">
-        <v>157.4859520158119</v>
+        <v>250.7834530574495</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4550009424399</v>
+        <v>367.7525019840782</v>
       </c>
       <c r="P9" t="n">
-        <v>391.424049869068</v>
+        <v>391.4240498690702</v>
       </c>
       <c r="Q9" t="n">
-        <v>472.6022178853659</v>
+        <v>472.6022178853682</v>
       </c>
       <c r="R9" t="n">
-        <v>472.6022178853659</v>
+        <v>376.9507231771953</v>
       </c>
       <c r="S9" t="n">
-        <v>353.2582234698694</v>
+        <v>257.6067287616983</v>
       </c>
       <c r="T9" t="n">
-        <v>353.2582234698694</v>
+        <v>138.2627343462012</v>
       </c>
       <c r="U9" t="n">
-        <v>233.914229054373</v>
+        <v>18.91873993070419</v>
       </c>
       <c r="V9" t="n">
-        <v>233.914229054373</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="W9" t="n">
-        <v>233.914229054373</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="X9" t="n">
-        <v>114.5702346388765</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="C10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="D10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="E10" t="n">
-        <v>24.37569053733696</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="F10" t="n">
-        <v>24.37569053733696</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="G10" t="n">
-        <v>24.37569053733696</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="H10" t="n">
-        <v>24.37569053733696</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="I10" t="n">
-        <v>24.37569053733696</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="J10" t="n">
-        <v>24.37569053733696</v>
+        <v>24.37569053733701</v>
       </c>
       <c r="K10" t="n">
-        <v>9.452044357707319</v>
+        <v>9.452044357707365</v>
       </c>
       <c r="L10" t="n">
-        <v>46.53856328442652</v>
+        <v>46.53856328442656</v>
       </c>
       <c r="M10" t="n">
-        <v>96.23399720136599</v>
+        <v>96.23399720136604</v>
       </c>
       <c r="N10" t="n">
-        <v>149.8890466693575</v>
+        <v>149.8890466693576</v>
       </c>
       <c r="O10" t="n">
-        <v>184.1115726190288</v>
+        <v>184.1115726190289</v>
       </c>
       <c r="P10" t="n">
-        <v>190.1723742987258</v>
+        <v>190.1723742987259</v>
       </c>
       <c r="Q10" t="n">
-        <v>190.1723742987258</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="R10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="S10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="T10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="U10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="V10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="W10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="X10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.7196849528334</v>
+        <v>109.6060107877681</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1368.744505365609</v>
+        <v>1582.825780987582</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.744505365609</v>
+        <v>1212.133765150267</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.744505365609</v>
+        <v>851.9269643880459</v>
       </c>
       <c r="E11" t="n">
-        <v>1364.084496296101</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F11" t="n">
-        <v>952.6765533864634</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G11" t="n">
-        <v>535.0121627141084</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H11" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I11" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J11" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K11" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L11" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M11" t="n">
         <v>1355.324135626646</v>
@@ -5068,25 +5068,25 @@
         <v>2620.010037624015</v>
       </c>
       <c r="S11" t="n">
-        <v>2620.010037624015</v>
+        <v>2543.661659876119</v>
       </c>
       <c r="T11" t="n">
-        <v>2400.837317313204</v>
+        <v>2324.488939565309</v>
       </c>
       <c r="U11" t="n">
-        <v>2146.929840459176</v>
+        <v>2324.488939565309</v>
       </c>
       <c r="V11" t="n">
-        <v>2146.929840459176</v>
+        <v>2324.488939565309</v>
       </c>
       <c r="W11" t="n">
-        <v>2146.929840459176</v>
+        <v>1970.418114312224</v>
       </c>
       <c r="X11" t="n">
-        <v>2146.929840459176</v>
+        <v>1970.418114312224</v>
       </c>
       <c r="Y11" t="n">
-        <v>1756.336838690251</v>
+        <v>1970.418114312224</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.4794979670866</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C12" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D12" t="n">
-        <v>659.1380762478477</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E12" t="n">
-        <v>501.5285472507024</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F12" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G12" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H12" t="n">
-        <v>115.4714096068661</v>
+        <v>115.471409606866</v>
       </c>
       <c r="I12" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J12" t="n">
-        <v>129.3364848865958</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K12" t="n">
-        <v>385.5055637579837</v>
+        <v>239.7918714752597</v>
       </c>
       <c r="L12" t="n">
-        <v>790.8061104916228</v>
+        <v>645.0924182088987</v>
       </c>
       <c r="M12" t="n">
         <v>1170.859233530006</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="C13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="D13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="E13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="F13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="G13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="H13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="I13" t="n">
         <v>53.53110657407782</v>
@@ -5226,25 +5226,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T13" t="n">
-        <v>342.4390088515643</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U13" t="n">
-        <v>53.53110657407782</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V13" t="n">
-        <v>53.53110657407782</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="W13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="X13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.53110657407782</v>
+        <v>149.8041617589672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1815.016082349039</v>
+        <v>841.8875130837487</v>
       </c>
       <c r="C14" t="n">
-        <v>1545.808317720755</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="D14" t="n">
-        <v>1185.601516958534</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="E14" t="n">
-        <v>798.6136020542033</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="F14" t="n">
-        <v>798.6136020542033</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9492113818483</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H14" t="n">
         <v>53.53110657407782</v>
@@ -5278,16 +5278,16 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J14" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K14" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632931</v>
       </c>
       <c r="L14" t="n">
-        <v>877.2105568248487</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M14" t="n">
-        <v>1355.324135626646</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N14" t="n">
         <v>1825.656916993543</v>
@@ -5302,28 +5302,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R14" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S14" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="T14" t="n">
-        <v>2443.531235093138</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="U14" t="n">
-        <v>2189.62375823911</v>
+        <v>2500.076526173014</v>
       </c>
       <c r="V14" t="n">
-        <v>2189.62375823911</v>
+        <v>2168.224787261379</v>
       </c>
       <c r="W14" t="n">
-        <v>2189.62375823911</v>
+        <v>1994.680524067385</v>
       </c>
       <c r="X14" t="n">
-        <v>1815.016082349039</v>
+        <v>1620.072848177315</v>
       </c>
       <c r="Y14" t="n">
-        <v>1815.016082349039</v>
+        <v>1229.47984640839</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>790.8061104916228</v>
       </c>
       <c r="M15" t="n">
-        <v>1316.57292581273</v>
+        <v>1170.859233530006</v>
       </c>
       <c r="N15" t="n">
         <v>1725.940263988108</v>
@@ -5384,7 +5384,7 @@
         <v>2626.774708455268</v>
       </c>
       <c r="S15" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T15" t="n">
         <v>2272.420954324036</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H16" t="n">
         <v>53.53110657407782</v>
@@ -5460,28 +5460,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R16" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S16" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T16" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U16" t="n">
-        <v>580.4019818320927</v>
+        <v>598.0047711744362</v>
       </c>
       <c r="V16" t="n">
-        <v>580.4019818320927</v>
+        <v>342.5135074704572</v>
       </c>
       <c r="W16" t="n">
-        <v>291.4195809357134</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.2908932240091</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1360.33019182245</v>
+        <v>1111.848027981385</v>
       </c>
       <c r="C17" t="n">
-        <v>989.6381759851339</v>
+        <v>741.1560121440689</v>
       </c>
       <c r="D17" t="n">
-        <v>989.6381759851339</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="E17" t="n">
-        <v>602.6502610808031</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="F17" t="n">
-        <v>602.6502610808031</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="G17" t="n">
-        <v>184.9858704084481</v>
+        <v>380.9492113818483</v>
       </c>
       <c r="H17" t="n">
-        <v>184.9858704084481</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I17" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K17" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632935</v>
       </c>
       <c r="L17" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M17" t="n">
         <v>1355.324135626645</v>
@@ -5539,28 +5539,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R17" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S17" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T17" t="n">
-        <v>2457.382608393081</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U17" t="n">
-        <v>2457.382608393081</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V17" t="n">
-        <v>2125.530869481445</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="W17" t="n">
-        <v>2125.530869481445</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="X17" t="n">
-        <v>1750.923193591375</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="Y17" t="n">
-        <v>1360.33019182245</v>
+        <v>1499.440361306026</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J18" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K18" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L18" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M18" t="n">
-        <v>1316.57292581273</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O18" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P18" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q18" t="n">
         <v>2676.555328703891</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.53110657407782</v>
+        <v>658.2126916655459</v>
       </c>
       <c r="C19" t="n">
-        <v>53.53110657407782</v>
+        <v>489.1858705229173</v>
       </c>
       <c r="D19" t="n">
-        <v>53.53110657407782</v>
+        <v>338.675197275928</v>
       </c>
       <c r="E19" t="n">
-        <v>53.53110657407782</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="F19" t="n">
-        <v>53.53110657407782</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="G19" t="n">
-        <v>53.53110657407782</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="H19" t="n">
-        <v>53.53110657407782</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I19" t="n">
         <v>53.53110657407782</v>
@@ -5697,28 +5697,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R19" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S19" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T19" t="n">
-        <v>580.4019818320927</v>
+        <v>658.2126916655459</v>
       </c>
       <c r="U19" t="n">
-        <v>291.4940795546063</v>
+        <v>658.2126916655459</v>
       </c>
       <c r="V19" t="n">
-        <v>291.4940795546063</v>
+        <v>658.2126916655459</v>
       </c>
       <c r="W19" t="n">
-        <v>53.53110657407782</v>
+        <v>658.2126916655459</v>
       </c>
       <c r="X19" t="n">
-        <v>53.53110657407782</v>
+        <v>658.2126916655459</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.53110657407782</v>
+        <v>658.2126916655459</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>909.9207978735078</v>
+        <v>1185.601516958534</v>
       </c>
       <c r="C20" t="n">
-        <v>539.228782036192</v>
+        <v>1185.601516958534</v>
       </c>
       <c r="D20" t="n">
-        <v>539.228782036192</v>
+        <v>1185.601516958534</v>
       </c>
       <c r="E20" t="n">
-        <v>539.228782036192</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="F20" t="n">
-        <v>539.228782036192</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G20" t="n">
-        <v>121.564391363837</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H20" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I20" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J20" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K20" t="n">
-        <v>461.191566563293</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L20" t="n">
-        <v>877.2105568248484</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M20" t="n">
         <v>1355.324135626645</v>
@@ -5770,34 +5770,34 @@
         <v>2223.65047400805</v>
       </c>
       <c r="P20" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q20" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R20" t="n">
-        <v>2620.010037624015</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S20" t="n">
         <v>2443.531235093138</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.358514782328</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U20" t="n">
-        <v>1970.451037928299</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="V20" t="n">
-        <v>1638.599299016663</v>
+        <v>1892.506775870692</v>
       </c>
       <c r="W20" t="n">
-        <v>1284.528473763578</v>
+        <v>1892.506775870692</v>
       </c>
       <c r="X20" t="n">
-        <v>909.9207978735078</v>
+        <v>1517.899099980621</v>
       </c>
       <c r="Y20" t="n">
-        <v>909.9207978735078</v>
+        <v>1517.899099980621</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.4794979670864</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889035</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D21" t="n">
-        <v>659.1380762478473</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E21" t="n">
-        <v>501.5285472507019</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F21" t="n">
-        <v>356.5727572673187</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G21" t="n">
-        <v>219.9143827707585</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H21" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I21" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J21" t="n">
         <v>129.3364848865957</v>
@@ -5840,37 +5840,37 @@
         <v>790.8061104916227</v>
       </c>
       <c r="M21" t="n">
-        <v>1316.57292581273</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N21" t="n">
         <v>1871.653956270832</v>
       </c>
       <c r="O21" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P21" t="n">
-        <v>2502.945759567338</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q21" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R21" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S21" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X21" t="n">
         <v>1352.250484864996</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.53110657407782</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="C22" t="n">
-        <v>53.53110657407782</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="D22" t="n">
-        <v>53.53110657407782</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="E22" t="n">
-        <v>53.53110657407782</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F22" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G22" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H22" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I22" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J22" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K22" t="n">
         <v>109.4344173802943</v>
@@ -5931,31 +5931,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q22" t="n">
-        <v>727.6944649328329</v>
+        <v>698.9936860926541</v>
       </c>
       <c r="R22" t="n">
-        <v>580.4019818320927</v>
+        <v>657.5834516777772</v>
       </c>
       <c r="S22" t="n">
-        <v>366.5928435525523</v>
+        <v>657.5834516777772</v>
       </c>
       <c r="T22" t="n">
-        <v>138.6004796025031</v>
+        <v>429.5910877277281</v>
       </c>
       <c r="U22" t="n">
-        <v>138.6004796025031</v>
+        <v>429.5910877277281</v>
       </c>
       <c r="V22" t="n">
-        <v>53.53110657407782</v>
+        <v>429.5910877277281</v>
       </c>
       <c r="W22" t="n">
-        <v>53.53110657407782</v>
+        <v>429.5910877277281</v>
       </c>
       <c r="X22" t="n">
-        <v>53.53110657407782</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.53110657407782</v>
+        <v>201.1664817354965</v>
       </c>
     </row>
     <row r="23">
@@ -5965,55 +5965,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>738.500516415393</v>
+        <v>1290.738224109501</v>
       </c>
       <c r="C23" t="n">
-        <v>738.500516415393</v>
+        <v>920.0462082721853</v>
       </c>
       <c r="D23" t="n">
-        <v>378.2937156531724</v>
+        <v>559.8394075099646</v>
       </c>
       <c r="E23" t="n">
-        <v>378.2937156531724</v>
+        <v>172.8514926056338</v>
       </c>
       <c r="F23" t="n">
-        <v>378.2937156531724</v>
+        <v>172.8514926056338</v>
       </c>
       <c r="G23" t="n">
-        <v>207.594057906338</v>
+        <v>172.8514926056338</v>
       </c>
       <c r="H23" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I23" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N23" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O23" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P23" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q23" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R23" t="n">
-        <v>2620.010037624015</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S23" t="n">
         <v>2443.531235093138</v>
@@ -6022,19 +6022,19 @@
         <v>2443.531235093138</v>
       </c>
       <c r="U23" t="n">
-        <v>2189.62375823911</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="V23" t="n">
-        <v>1857.772019327474</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="W23" t="n">
-        <v>1503.701194074388</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="X23" t="n">
-        <v>1129.093518184318</v>
+        <v>2068.923559203068</v>
       </c>
       <c r="Y23" t="n">
-        <v>738.500516415393</v>
+        <v>1678.330557434143</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C24" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D24" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E24" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F24" t="n">
         <v>356.5727572673187</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H24" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I24" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K24" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L24" t="n">
-        <v>790.8061104916226</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M24" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N24" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O24" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P24" t="n">
-        <v>2502.945759567338</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R24" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S24" t="n">
         <v>2469.829437388748</v>
@@ -6104,16 +6104,16 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V24" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X24" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y24" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K25" t="n">
         <v>109.4344173802943</v>
       </c>
       <c r="L25" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M25" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N25" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O25" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P25" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.993686092654</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R25" t="n">
-        <v>698.993686092654</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S25" t="n">
-        <v>698.993686092654</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>698.993686092654</v>
+        <v>631.4214097479435</v>
       </c>
       <c r="U25" t="n">
-        <v>410.0857838151676</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="V25" t="n">
-        <v>410.0857838151676</v>
+        <v>342.5135074704571</v>
       </c>
       <c r="W25" t="n">
-        <v>121.1033829187883</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1498.835942885716</v>
+        <v>1268.581156966552</v>
       </c>
       <c r="C26" t="n">
-        <v>1128.1439270484</v>
+        <v>1185.601516958534</v>
       </c>
       <c r="D26" t="n">
-        <v>767.937126286179</v>
+        <v>1185.601516958534</v>
       </c>
       <c r="E26" t="n">
-        <v>380.9492113818482</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="F26" t="n">
-        <v>380.9492113818482</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G26" t="n">
         <v>380.9492113818482</v>
       </c>
       <c r="H26" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I26" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
-        <v>167.7421803733071</v>
+        <v>167.7421803733074</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632925</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248478</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M26" t="n">
         <v>1355.324135626645</v>
@@ -6241,37 +6241,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O26" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P26" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q26" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
         <v>2620.010037624014</v>
       </c>
       <c r="S26" t="n">
-        <v>2443.531235093137</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.358514782327</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U26" t="n">
-        <v>1970.451037928298</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="V26" t="n">
-        <v>1970.451037928298</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="W26" t="n">
-        <v>1970.451037928298</v>
+        <v>2046.766492060119</v>
       </c>
       <c r="X26" t="n">
-        <v>1595.843362038228</v>
+        <v>2046.766492060119</v>
       </c>
       <c r="Y26" t="n">
-        <v>1498.835942885716</v>
+        <v>1656.173490291194</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.4794979670856</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C27" t="n">
-        <v>806.7263828889029</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D27" t="n">
-        <v>659.1380762478468</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E27" t="n">
-        <v>501.5285472507015</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F27" t="n">
-        <v>356.5727572673184</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G27" t="n">
-        <v>219.9143827707584</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068658</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I27" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J27" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K27" t="n">
-        <v>309.7001854454656</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L27" t="n">
-        <v>645.0924182088982</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M27" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O27" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P27" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q27" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R27" t="n">
         <v>2626.774708455267</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.5311065740778</v>
+        <v>636.821245684336</v>
       </c>
       <c r="C28" t="n">
-        <v>53.5311065740778</v>
+        <v>636.821245684336</v>
       </c>
       <c r="D28" t="n">
-        <v>53.5311065740778</v>
+        <v>486.3105724373468</v>
       </c>
       <c r="E28" t="n">
-        <v>53.5311065740778</v>
+        <v>337.8513561007819</v>
       </c>
       <c r="F28" t="n">
-        <v>53.5311065740778</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="G28" t="n">
-        <v>53.5311065740778</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="H28" t="n">
-        <v>53.5311065740778</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I28" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J28" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K28" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L28" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M28" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N28" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O28" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P28" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.993686092654</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>597.9302725555432</v>
+        <v>636.821245684336</v>
       </c>
       <c r="S28" t="n">
-        <v>597.9302725555432</v>
+        <v>636.821245684336</v>
       </c>
       <c r="T28" t="n">
-        <v>597.9302725555432</v>
+        <v>636.821245684336</v>
       </c>
       <c r="U28" t="n">
-        <v>309.0223702780568</v>
+        <v>636.821245684336</v>
       </c>
       <c r="V28" t="n">
-        <v>53.5311065740778</v>
+        <v>636.821245684336</v>
       </c>
       <c r="W28" t="n">
-        <v>53.5311065740778</v>
+        <v>636.821245684336</v>
       </c>
       <c r="X28" t="n">
-        <v>53.5311065740778</v>
+        <v>636.821245684336</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.5311065740778</v>
+        <v>636.821245684336</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>522.3284645488654</v>
+        <v>1071.565503798691</v>
       </c>
       <c r="C29" t="n">
-        <v>522.3284645488654</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D29" t="n">
-        <v>162.1216637866448</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E29" t="n">
-        <v>162.1216637866448</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F29" t="n">
-        <v>162.1216637866448</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G29" t="n">
-        <v>162.1216637866448</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H29" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I29" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733071</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632925</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248478</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
@@ -6478,37 +6478,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O29" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P29" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q29" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R29" t="n">
         <v>2620.010037624014</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.531235093137</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T29" t="n">
         <v>2224.358514782327</v>
       </c>
       <c r="U29" t="n">
-        <v>1970.451037928298</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="V29" t="n">
-        <v>1638.599299016662</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="W29" t="n">
-        <v>1284.528473763577</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="X29" t="n">
-        <v>909.9207978735069</v>
+        <v>1849.750838892257</v>
       </c>
       <c r="Y29" t="n">
-        <v>909.9207978735069</v>
+        <v>1459.157837123332</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.4794979670856</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889029</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D30" t="n">
-        <v>659.1380762478468</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E30" t="n">
         <v>501.5285472507018</v>
@@ -6539,31 +6539,31 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I30" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J30" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K30" t="n">
-        <v>309.7001854454656</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L30" t="n">
-        <v>645.0924182088982</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M30" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O30" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P30" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q30" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R30" t="n">
         <v>2626.774708455267</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="C31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="D31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="E31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="F31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G31" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H31" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I31" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J31" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K31" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L31" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M31" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N31" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O31" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P31" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q31" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R31" t="n">
-        <v>580.4019818320926</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S31" t="n">
-        <v>580.4019818320926</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T31" t="n">
-        <v>580.4019818320926</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="U31" t="n">
-        <v>291.4940795546062</v>
+        <v>222.497158523885</v>
       </c>
       <c r="V31" t="n">
-        <v>291.4940795546062</v>
+        <v>222.497158523885</v>
       </c>
       <c r="W31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="X31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1538.435950617606</v>
+        <v>1093.43805753385</v>
       </c>
       <c r="C32" t="n">
-        <v>1167.74393478029</v>
+        <v>1093.43805753385</v>
       </c>
       <c r="D32" t="n">
-        <v>1167.74393478029</v>
+        <v>1093.43805753385</v>
       </c>
       <c r="E32" t="n">
-        <v>780.7560198759588</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F32" t="n">
-        <v>380.9492113818482</v>
+        <v>471.1954972464328</v>
       </c>
       <c r="G32" t="n">
-        <v>380.9492113818482</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H32" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I32" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J32" t="n">
         <v>167.7421803733073</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L32" t="n">
         <v>877.210556824848</v>
@@ -6715,37 +6715,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O32" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P32" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q32" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S32" t="n">
-        <v>2443.531235093137</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.358514782327</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.358514782327</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V32" t="n">
-        <v>1892.506775870691</v>
+        <v>1871.623392627416</v>
       </c>
       <c r="W32" t="n">
-        <v>1538.435950617606</v>
+        <v>1871.623392627416</v>
       </c>
       <c r="X32" t="n">
-        <v>1538.435950617606</v>
+        <v>1871.623392627416</v>
       </c>
       <c r="Y32" t="n">
-        <v>1538.435950617606</v>
+        <v>1481.030390858491</v>
       </c>
     </row>
     <row r="33">
@@ -6758,49 +6758,49 @@
         <v>979.479497967086</v>
       </c>
       <c r="C33" t="n">
-        <v>806.726382888903</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D33" t="n">
-        <v>659.1380762478468</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E33" t="n">
-        <v>501.5285472507014</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673183</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G33" t="n">
-        <v>219.914382770758</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H33" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I33" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>53.5311065740778</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K33" t="n">
-        <v>309.7001854454656</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L33" t="n">
-        <v>645.0924182088982</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M33" t="n">
-        <v>1170.859233530005</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N33" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O33" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P33" t="n">
         <v>2502.945759567337</v>
       </c>
       <c r="Q33" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R33" t="n">
         <v>2626.774708455267</v>
@@ -6818,7 +6818,7 @@
         <v>1811.291875126085</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X33" t="n">
         <v>1352.250484864996</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.5311065740778</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="C34" t="n">
-        <v>53.5311065740778</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="D34" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="E34" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="F34" t="n">
-        <v>53.5311065740778</v>
+        <v>222.497158523885</v>
       </c>
       <c r="G34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J34" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K34" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
         <v>381.630737830651</v>
       </c>
       <c r="N34" t="n">
-        <v>528.1833689256791</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O34" t="n">
-        <v>648.2118474172127</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P34" t="n">
-        <v>727.6944649328328</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.993686092654</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>698.993686092654</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S34" t="n">
-        <v>698.993686092654</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T34" t="n">
-        <v>698.993686092654</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="U34" t="n">
-        <v>698.993686092654</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="V34" t="n">
-        <v>443.502422388675</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="W34" t="n">
-        <v>154.5200214922957</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="X34" t="n">
-        <v>154.5200214922957</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.5311065740778</v>
+        <v>285.8929627032434</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1470.179686002832</v>
+        <v>1587.91722567642</v>
       </c>
       <c r="C35" t="n">
-        <v>1099.487670165516</v>
+        <v>1217.225209839104</v>
       </c>
       <c r="D35" t="n">
-        <v>739.2808694032956</v>
+        <v>1217.225209839104</v>
       </c>
       <c r="E35" t="n">
-        <v>471.1954972464328</v>
+        <v>1217.225209839104</v>
       </c>
       <c r="F35" t="n">
-        <v>471.1954972464328</v>
+        <v>805.8172669294663</v>
       </c>
       <c r="G35" t="n">
-        <v>53.53110657407781</v>
+        <v>388.1528762571113</v>
       </c>
       <c r="H35" t="n">
-        <v>53.53110657407781</v>
+        <v>60.73477144934088</v>
       </c>
       <c r="I35" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733077</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632931</v>
       </c>
       <c r="L35" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N35" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O35" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P35" t="n">
-        <v>2526.389973845557</v>
+        <v>2526.389973845558</v>
       </c>
       <c r="Q35" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2620.010037624014</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S35" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="T35" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="U35" t="n">
-        <v>2189.623758239109</v>
+        <v>2366.102560769986</v>
       </c>
       <c r="V35" t="n">
-        <v>1857.772019327473</v>
+        <v>2366.102560769986</v>
       </c>
       <c r="W35" t="n">
-        <v>1857.772019327473</v>
+        <v>2366.102560769986</v>
       </c>
       <c r="X35" t="n">
-        <v>1857.772019327473</v>
+        <v>2366.102560769986</v>
       </c>
       <c r="Y35" t="n">
-        <v>1857.772019327473</v>
+        <v>1975.509559001061</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D36" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E36" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G36" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H36" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I36" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J36" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K36" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L36" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M36" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N36" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O36" t="n">
-        <v>2236.011258252653</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P36" t="n">
-        <v>2572.854073537543</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R36" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S36" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X36" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K37" t="n">
         <v>109.4344173802943</v>
@@ -7116,31 +7116,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>698.9936860926541</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T37" t="n">
-        <v>471.001322142605</v>
+        <v>285.8929627032434</v>
       </c>
       <c r="U37" t="n">
-        <v>182.0934198651186</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="V37" t="n">
-        <v>182.0934198651186</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="W37" t="n">
-        <v>182.0934198651186</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X37" t="n">
-        <v>182.0934198651186</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.53110657407781</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1195.837866083251</v>
+        <v>2288.962995379249</v>
       </c>
       <c r="C38" t="n">
-        <v>825.1458502459357</v>
+        <v>1918.270979541933</v>
       </c>
       <c r="D38" t="n">
-        <v>464.9390494837151</v>
+        <v>1558.064178779713</v>
       </c>
       <c r="E38" t="n">
-        <v>464.9390494837151</v>
+        <v>1171.076263875382</v>
       </c>
       <c r="F38" t="n">
-        <v>53.53110657407781</v>
+        <v>759.6683209657444</v>
       </c>
       <c r="G38" t="n">
-        <v>53.53110657407781</v>
+        <v>342.0039302933894</v>
       </c>
       <c r="H38" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I38" t="n">
         <v>53.53110657407781</v>
@@ -7177,10 +7177,10 @@
         <v>167.7421803733075</v>
       </c>
       <c r="K38" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248483</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M38" t="n">
         <v>1355.324135626645</v>
@@ -7198,28 +7198,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.275582992072</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.275582992072</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.368106138043</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="V38" t="n">
-        <v>1924.516367226407</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="W38" t="n">
-        <v>1570.445541973321</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="X38" t="n">
-        <v>1195.837866083251</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="Y38" t="n">
-        <v>1195.837866083251</v>
+        <v>2676.555328703891</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J39" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K39" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L39" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M39" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N39" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O39" t="n">
         <v>2166.102944282447</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.53110657407781</v>
+        <v>201.9903229106426</v>
       </c>
       <c r="C40" t="n">
-        <v>53.53110657407781</v>
+        <v>201.9903229106426</v>
       </c>
       <c r="D40" t="n">
-        <v>53.53110657407781</v>
+        <v>201.9903229106426</v>
       </c>
       <c r="E40" t="n">
         <v>53.53110657407781</v>
@@ -7353,31 +7353,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>551.7012029919139</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>337.8920647123734</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T40" t="n">
-        <v>109.8997007623243</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U40" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="V40" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="W40" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7865626553465</v>
       </c>
       <c r="X40" t="n">
-        <v>53.53110657407781</v>
+        <v>383.893041588101</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.53110657407781</v>
+        <v>383.893041588101</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.632453936737</v>
+        <v>1679.197273299514</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.228345726061</v>
+        <v>1308.505257462198</v>
       </c>
       <c r="D41" t="n">
-        <v>1210.021544963841</v>
+        <v>1308.505257462198</v>
       </c>
       <c r="E41" t="n">
         <v>1210.021544963841</v>
@@ -7411,13 +7411,13 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J41" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L41" t="n">
-        <v>877.2105568248483</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
@@ -7438,25 +7438,25 @@
         <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2500.076526173014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T41" t="n">
-        <v>2500.076526173014</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U41" t="n">
-        <v>2500.076526173014</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V41" t="n">
-        <v>2168.224787261378</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.224787261378</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="X41" t="n">
-        <v>2168.224787261378</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="Y41" t="n">
-        <v>2168.224787261378</v>
+        <v>2066.789606624155</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.4794979670861</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D42" t="n">
         <v>659.138076247847</v>
@@ -7493,22 +7493,22 @@
         <v>129.3364848865957</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7918714752595</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L42" t="n">
-        <v>645.0924182088986</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M42" t="n">
-        <v>1170.859233530005</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O42" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P42" t="n">
-        <v>2502.945759567337</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q42" t="n">
         <v>2676.555328703891</v>
@@ -7535,7 +7535,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.1921838630645</v>
+        <v>278.3116025085122</v>
       </c>
       <c r="C43" t="n">
-        <v>257.1921838630645</v>
+        <v>109.2847813658836</v>
       </c>
       <c r="D43" t="n">
-        <v>257.1921838630645</v>
+        <v>109.2847813658836</v>
       </c>
       <c r="E43" t="n">
-        <v>257.1921838630645</v>
+        <v>109.2847813658836</v>
       </c>
       <c r="F43" t="n">
-        <v>257.1921838630645</v>
+        <v>109.2847813658836</v>
       </c>
       <c r="G43" t="n">
-        <v>257.1921838630645</v>
+        <v>109.2847813658836</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I43" t="n">
         <v>53.53110657407781</v>
@@ -7590,31 +7590,31 @@
         <v>727.6944649328329</v>
       </c>
       <c r="Q43" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R43" t="n">
-        <v>698.9936860926541</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S43" t="n">
-        <v>485.1845478131137</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T43" t="n">
-        <v>257.1921838630645</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U43" t="n">
-        <v>257.1921838630645</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V43" t="n">
-        <v>257.1921838630645</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W43" t="n">
-        <v>257.1921838630645</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X43" t="n">
-        <v>257.1921838630645</v>
+        <v>499.2698589406014</v>
       </c>
       <c r="Y43" t="n">
-        <v>257.1921838630645</v>
+        <v>278.3116025085122</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>682.7599220023872</v>
+        <v>2013.244983988563</v>
       </c>
       <c r="C44" t="n">
-        <v>312.0679061650713</v>
+        <v>1642.552968151247</v>
       </c>
       <c r="D44" t="n">
-        <v>312.0679061650713</v>
+        <v>1282.346167389026</v>
       </c>
       <c r="E44" t="n">
-        <v>312.0679061650713</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F44" t="n">
-        <v>53.53110657407781</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G44" t="n">
-        <v>53.53110657407781</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H44" t="n">
         <v>53.53110657407781</v>
@@ -7648,13 +7648,13 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L44" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7675,25 +7675,25 @@
         <v>2620.010037624014</v>
       </c>
       <c r="S44" t="n">
-        <v>2443.531235093138</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T44" t="n">
-        <v>2443.531235093138</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U44" t="n">
-        <v>2189.623758239109</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="V44" t="n">
-        <v>2189.623758239109</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="W44" t="n">
-        <v>1835.552932986024</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="X44" t="n">
-        <v>1460.945257095954</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="Y44" t="n">
-        <v>1070.352255327029</v>
+        <v>2400.837317313204</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C45" t="n">
         <v>806.7263828889031</v>
@@ -7772,7 +7772,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K46" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L46" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M46" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N46" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O46" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T46" t="n">
-        <v>2676.555328703891</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U46" t="n">
-        <v>2387.647426426404</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V46" t="n">
-        <v>2132.156162722426</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="W46" t="n">
-        <v>2132.156162722426</v>
+        <v>210.7197000864045</v>
       </c>
       <c r="X46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y46" t="n">
-        <v>2132.156162722426</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>268.7846244334939</v>
       </c>
       <c r="L2" t="n">
-        <v>229.8722545957376</v>
+        <v>284.0692742603754</v>
       </c>
       <c r="M2" t="n">
-        <v>272.5352758302076</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N2" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O2" t="n">
-        <v>278.5427758007825</v>
+        <v>272.2934545697612</v>
       </c>
       <c r="P2" t="n">
         <v>279.6491905260257</v>
@@ -8063,16 +8063,16 @@
         <v>188.5924226646379</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>189.2875399500152</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>183.119933412272</v>
       </c>
       <c r="N3" t="n">
-        <v>172.5974196195541</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>193.2283579979712</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
         <v>130.625047228972</v>
@@ -8218,13 +8218,13 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>214.587604768856</v>
+        <v>266.5948458611853</v>
       </c>
       <c r="L5" t="n">
-        <v>277.8199530293542</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>278.7845970612288</v>
       </c>
       <c r="N5" t="n">
         <v>277.8747566713141</v>
@@ -8233,10 +8233,10 @@
         <v>278.5427758007825</v>
       </c>
       <c r="P5" t="n">
-        <v>279.6491905260257</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8300,16 +8300,16 @@
         <v>188.5924226646379</v>
       </c>
       <c r="L6" t="n">
-        <v>189.2875399500152</v>
+        <v>179.6297706236815</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>192.7777027386057</v>
       </c>
       <c r="N6" t="n">
-        <v>172.5974196195541</v>
+        <v>182.2551889458879</v>
       </c>
       <c r="O6" t="n">
-        <v>193.2283579979712</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
@@ -8455,25 +8455,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>218.7459138266235</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>348.022809067079</v>
+        <v>229.971020994793</v>
       </c>
       <c r="M8" t="n">
-        <v>342.7381318679324</v>
+        <v>342.738131867933</v>
       </c>
       <c r="N8" t="n">
-        <v>341.8282914780176</v>
+        <v>341.8282914780182</v>
       </c>
       <c r="O8" t="n">
-        <v>224.3457561361446</v>
+        <v>342.4963106074866</v>
       </c>
       <c r="P8" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q8" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8534,22 +8534,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>252.5459574713415</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4913375032523</v>
+        <v>256.7312375453099</v>
       </c>
       <c r="N9" t="n">
-        <v>128.05816928125</v>
+        <v>246.2087237525921</v>
       </c>
       <c r="O9" t="n">
-        <v>257.1818928046748</v>
+        <v>257.1818928046754</v>
       </c>
       <c r="P9" t="n">
-        <v>248.7756017003135</v>
+        <v>154.5357016582569</v>
       </c>
       <c r="Q9" t="n">
         <v>218.4803792452831</v>
@@ -8768,16 +8768,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946162</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>204.4293879373181</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>337.1477185396726</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
         <v>498.5160693172957</v>
@@ -9014,10 +9014,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>484.3332662999999</v>
+        <v>337.1477185396726</v>
       </c>
       <c r="N15" t="n">
-        <v>351.3305215569682</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9169,7 +9169,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>434.3676631324686</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
         <v>467.4940748325458</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>351.3305215569682</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9263,7 +9263,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895189</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9494,13 +9494,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>262.4312642874717</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>184.0157316252084</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>54.56358754946166</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>315.0595005598334</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>54.56358754946166</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>315.0595005598334</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,13 +10427,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>54.56358754946166</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>315.0595005598334</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>484.3332662999999</v>
@@ -10445,7 +10445,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>331.2012793855346</v>
+        <v>184.015731625208</v>
       </c>
       <c r="Q33" t="n">
         <v>218.4803792452831</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789569</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>147.8659206895198</v>
+        <v>71.2948314849568</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10825,7 +10825,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740111</v>
       </c>
       <c r="L38" t="n">
         <v>434.3676631324684</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10916,7 +10916,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
-        <v>262.4312642874717</v>
+        <v>339.0023534920351</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
@@ -11077,7 +11077,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P41" t="n">
-        <v>334.6706564983421</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11141,7 +11141,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>127.8582987327544</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>378.504626776474</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.714014505568</v>
+        <v>99.12912053515144</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I13" t="n">
-        <v>135.3180256216325</v>
+        <v>40.00770098859205</v>
       </c>
       <c r="J13" t="n">
         <v>45.48578169199546</v>
@@ -23466,10 +23466,10 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T13" t="n">
-        <v>55.98058568683771</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>100.4694086969409</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I14" t="n">
         <v>152.5223218189375</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>216.980993107702</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>178.7212964385011</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23670,7 +23670,7 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I16" t="n">
         <v>135.3180256216325</v>
@@ -23700,7 +23700,7 @@
         <v>28.41377105177698</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S16" t="n">
         <v>211.671046896745</v>
@@ -23709,16 +23709,16 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0188232547115</v>
+        <v>157.6260264338988</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>146.812959097722</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>22.38210562291098</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>270.9166188957405</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>146.1590214098045</v>
@@ -23910,7 +23910,7 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I19" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.48578169199547</v>
@@ -23937,22 +23937,22 @@
         <v>28.41377105177699</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S19" t="n">
         <v>211.671046896745</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7124403105487</v>
+        <v>156.9254847759345</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>50.50923363669236</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>54.74180279952861</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>256.7909718178312</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>152.5223218189376</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.2763914303091</v>
@@ -24150,7 +24150,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J22" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>104.8234261990047</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V22" t="n">
-        <v>168.7176717687981</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>244.4950855962654</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
-        <v>324.1439237596927</v>
+        <v>206.0167415884522</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R25" t="n">
         <v>145.8195582697328</v>
@@ -24417,7 +24417,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7124403105487</v>
+        <v>130.4021156775081</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>159.2438063510459</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>284.8352520710049</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>290.6497267902487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.2763914303091</v>
@@ -24621,7 +24621,7 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I28" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.48578169199548</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R28" t="n">
-        <v>45.7667788679931</v>
+        <v>55.85507121372079</v>
       </c>
       <c r="S28" t="n">
         <v>211.671046896745</v>
@@ -24657,10 +24657,10 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>179.9126526727482</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>216.6392721192514</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
         <v>152.5223218189376</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1821887834319</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.41377105177701</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S31" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>223.2569771171468</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>50.50923363669244</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>174.3917645512857</v>
       </c>
       <c r="F32" t="n">
-        <v>11.48512307137133</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
         <v>152.5223218189376</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>86.24372037695463</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -25089,7 +25089,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1821887834319</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R34" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.7696480987325</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>117.7135173199933</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>152.5223218189376</v>
+        <v>145.3906935924271</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
         <v>216.980993107702</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -25222,7 +25222,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R37" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S37" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>55.98058568683768</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.47198370963787</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>191.0781500965118</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S38" t="n">
-        <v>66.07690441994468</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
         <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25557,7 +25557,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>230.2139150083476</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25614,7 +25614,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>171.7957740757362</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>158.6850285503741</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>285.6191603819139</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>55.97983816907738</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T41" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25696,7 +25696,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -25803,10 +25803,10 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H43" t="n">
-        <v>89.87574788896758</v>
+        <v>100.9860507395442</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J43" t="n">
         <v>45.48578169199548</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.413771051777</v>
       </c>
       <c r="R43" t="n">
         <v>145.8195582697328</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
         <v>286.0188232547115</v>
@@ -25851,10 +25851,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>311.5166595543539</v>
       </c>
       <c r="F44" t="n">
-        <v>151.3424318854572</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>152.5223218189376</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -26043,7 +26043,7 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I46" t="n">
-        <v>6.851475168115797</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J46" t="n">
         <v>45.48578169199548</v>
@@ -26076,19 +26076,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>70.52365235510584</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>821113.0194865868</v>
+        <v>821113.0194865869</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>604409.6400735759</v>
+        <v>604409.6400735758</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604409.6400735759</v>
+        <v>604409.640073576</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604409.6400735761</v>
+        <v>604409.6400735759</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>604409.6400735758</v>
+        <v>604409.6400735759</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>604409.6400735758</v>
+        <v>604409.6400735759</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>604409.6400735758</v>
+        <v>604409.640073576</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>604409.6400735761</v>
+        <v>604409.640073576</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>604409.6400735759</v>
+        <v>604409.6400735758</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>604409.640073576</v>
+        <v>604409.6400735758</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>604409.640073576</v>
+        <v>604409.6400735759</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>651135.5268919494</v>
       </c>
       <c r="C2" t="n">
-        <v>651135.5268919492</v>
+        <v>651135.5268919495</v>
       </c>
       <c r="D2" t="n">
-        <v>651135.5268919495</v>
+        <v>651135.5268919494</v>
       </c>
       <c r="E2" t="n">
-        <v>454816.4320710951</v>
+        <v>454816.4320710952</v>
       </c>
       <c r="F2" t="n">
-        <v>454816.4320710952</v>
+        <v>454816.4320710953</v>
       </c>
       <c r="G2" t="n">
-        <v>454816.4320710952</v>
+        <v>454816.4320710953</v>
       </c>
       <c r="H2" t="n">
-        <v>454816.4320710951</v>
+        <v>454816.432071095</v>
       </c>
       <c r="I2" t="n">
         <v>454816.4320710951</v>
       </c>
       <c r="J2" t="n">
-        <v>454816.4320710952</v>
+        <v>454816.4320710951</v>
       </c>
       <c r="K2" t="n">
-        <v>454816.4320710951</v>
+        <v>454816.432071095</v>
       </c>
       <c r="L2" t="n">
-        <v>454816.4320710952</v>
+        <v>454816.432071095</v>
       </c>
       <c r="M2" t="n">
         <v>454816.4320710951</v>
       </c>
       <c r="N2" t="n">
+        <v>454816.4320710951</v>
+      </c>
+      <c r="O2" t="n">
+        <v>454816.432071095</v>
+      </c>
+      <c r="P2" t="n">
         <v>454816.4320710952</v>
-      </c>
-      <c r="O2" t="n">
-        <v>454816.4320710951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>454816.4320710951</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18162.66782107245</v>
+        <v>18162.66782107244</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19865.88651700633</v>
+        <v>19865.88651700651</v>
       </c>
       <c r="E3" t="n">
-        <v>437706.8631331112</v>
+        <v>437706.8631331109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14180.32501313445</v>
+        <v>14180.32501313451</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16186.06407776343</v>
+        <v>16186.06407776357</v>
       </c>
       <c r="M3" t="n">
-        <v>137308.482757105</v>
+        <v>137308.4827571048</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>368874.6952362111</v>
+      </c>
+      <c r="C4" t="n">
         <v>368874.6952362112</v>
       </c>
-      <c r="C4" t="n">
-        <v>368874.6952362111</v>
-      </c>
       <c r="D4" t="n">
-        <v>357045.0800799264</v>
+        <v>357045.0800799263</v>
       </c>
       <c r="E4" t="n">
+        <v>64824.50407354511</v>
+      </c>
+      <c r="F4" t="n">
         <v>64824.5040735451</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>64824.5040735451</v>
+      </c>
+      <c r="H4" t="n">
+        <v>64824.50407354512</v>
+      </c>
+      <c r="I4" t="n">
         <v>64824.50407354511</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64824.50407354512</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64824.50407354511</v>
-      </c>
-      <c r="I4" t="n">
-        <v>64824.50407354512</v>
       </c>
       <c r="J4" t="n">
         <v>64824.50407354511</v>
@@ -26447,19 +26447,19 @@
         <v>64824.50407354511</v>
       </c>
       <c r="L4" t="n">
-        <v>64824.50407354511</v>
+        <v>64824.50407354512</v>
       </c>
       <c r="M4" t="n">
-        <v>64824.50407354511</v>
+        <v>64824.50407354512</v>
       </c>
       <c r="N4" t="n">
-        <v>64824.50407354511</v>
+        <v>64824.5040735451</v>
       </c>
       <c r="O4" t="n">
         <v>64824.50407354511</v>
       </c>
       <c r="P4" t="n">
-        <v>64824.50407354511</v>
+        <v>64824.50407354512</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>36922.77879560999</v>
       </c>
       <c r="D5" t="n">
-        <v>40811.15371185756</v>
+        <v>40811.15371185759</v>
       </c>
       <c r="E5" t="n">
         <v>48096.64131659552</v>
@@ -26487,22 +26487,22 @@
         <v>48096.64131659552</v>
       </c>
       <c r="H5" t="n">
+        <v>48096.64131659551</v>
+      </c>
+      <c r="I5" t="n">
+        <v>48096.64131659551</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48096.64131659551</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48096.64131659551</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48096.64131659551</v>
+      </c>
+      <c r="M5" t="n">
         <v>48096.64131659552</v>
-      </c>
-      <c r="I5" t="n">
-        <v>48096.64131659552</v>
-      </c>
-      <c r="J5" t="n">
-        <v>48096.6413165955</v>
-      </c>
-      <c r="K5" t="n">
-        <v>48096.6413165955</v>
-      </c>
-      <c r="L5" t="n">
-        <v>48096.6413165955</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48096.64131659551</v>
       </c>
       <c r="N5" t="n">
         <v>48096.64131659551</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227175.3850390557</v>
+        <v>227175.3850390559</v>
       </c>
       <c r="C6" t="n">
-        <v>245338.0528601281</v>
+        <v>245338.0528601283</v>
       </c>
       <c r="D6" t="n">
-        <v>233413.4065831592</v>
+        <v>233413.4065831589</v>
       </c>
       <c r="E6" t="n">
-        <v>-95811.57645215665</v>
+        <v>-101946.548165308</v>
       </c>
       <c r="F6" t="n">
-        <v>341895.2866809546</v>
+        <v>335760.314967803</v>
       </c>
       <c r="G6" t="n">
-        <v>341895.2866809545</v>
+        <v>335760.314967803</v>
       </c>
       <c r="H6" t="n">
-        <v>341895.2866809545</v>
+        <v>335760.3149678028</v>
       </c>
       <c r="I6" t="n">
-        <v>341895.2866809545</v>
+        <v>335760.3149678028</v>
       </c>
       <c r="J6" t="n">
-        <v>327714.9616678201</v>
+        <v>321579.9899546683</v>
       </c>
       <c r="K6" t="n">
-        <v>341895.2866809545</v>
+        <v>335760.3149678027</v>
       </c>
       <c r="L6" t="n">
-        <v>325709.2226031912</v>
+        <v>319574.2508900392</v>
       </c>
       <c r="M6" t="n">
-        <v>204586.8039238495</v>
+        <v>198451.832210698</v>
       </c>
       <c r="N6" t="n">
-        <v>341895.2866809546</v>
+        <v>335760.3149678028</v>
       </c>
       <c r="O6" t="n">
-        <v>341895.2866809545</v>
+        <v>335760.3149678027</v>
       </c>
       <c r="P6" t="n">
-        <v>341895.2866809545</v>
+        <v>335760.3149678029</v>
       </c>
     </row>
   </sheetData>
@@ -26758,16 +26758,16 @@
         <v>340.045886252127</v>
       </c>
       <c r="I3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="J3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="K3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="L3" t="n">
-        <v>340.0458862521269</v>
+        <v>340.045886252127</v>
       </c>
       <c r="M3" t="n">
         <v>340.045886252127</v>
@@ -26795,7 +26795,7 @@
         <v>54.19701966463789</v>
       </c>
       <c r="D4" t="n">
-        <v>118.1505544713415</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="E4" t="n">
         <v>669.1388321759728</v>
@@ -26807,22 +26807,22 @@
         <v>669.1388321759728</v>
       </c>
       <c r="H4" t="n">
+        <v>669.1388321759727</v>
+      </c>
+      <c r="I4" t="n">
+        <v>669.1388321759727</v>
+      </c>
+      <c r="J4" t="n">
+        <v>669.1388321759727</v>
+      </c>
+      <c r="K4" t="n">
+        <v>669.1388321759727</v>
+      </c>
+      <c r="L4" t="n">
+        <v>669.1388321759727</v>
+      </c>
+      <c r="M4" t="n">
         <v>669.1388321759728</v>
-      </c>
-      <c r="I4" t="n">
-        <v>669.1388321759728</v>
-      </c>
-      <c r="J4" t="n">
-        <v>669.1388321759725</v>
-      </c>
-      <c r="K4" t="n">
-        <v>669.1388321759725</v>
-      </c>
-      <c r="L4" t="n">
-        <v>669.1388321759725</v>
-      </c>
-      <c r="M4" t="n">
-        <v>669.1388321759727</v>
       </c>
       <c r="N4" t="n">
         <v>669.1388321759727</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.95353480670358</v>
+        <v>63.95353480670417</v>
       </c>
       <c r="E4" t="n">
-        <v>550.9882777046313</v>
+        <v>550.9882777046307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.19701966463765</v>
+        <v>54.19701966463788</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.95353480670364</v>
+        <v>63.95353480670417</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046314</v>
+        <v>550.9882777046307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>63.95353480670358</v>
+        <v>63.95353480670417</v>
       </c>
       <c r="M4" t="n">
-        <v>550.9882777046313</v>
+        <v>550.9882777046307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>180.9361228218604</v>
       </c>
       <c r="T2" t="n">
-        <v>168.7680975317825</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>197.2807439119065</v>
       </c>
       <c r="V2" t="n">
-        <v>302.945115486278</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>296.3330973359167</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>316.6645794665315</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.4900520865979</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.6353906897318</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>116.8285642627631</v>
+        <v>123.288849006788</v>
       </c>
       <c r="D3" t="n">
-        <v>91.91540391000767</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
         <v>156.0334337071738</v>
@@ -27478,7 +27478,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>32.30652380083377</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>40.49796009645333</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -27514,10 +27514,10 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>170.4601574025633</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>177.7117113750172</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
@@ -27545,16 +27545,16 @@
         <v>94.80854684988147</v>
       </c>
       <c r="E4" t="n">
-        <v>130.6525565255045</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
         <v>91.9620017451666</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>166.3419310002468</v>
       </c>
       <c r="H4" t="n">
-        <v>107.4370523442789</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.7486738677682</v>
+        <v>164.5516542031303</v>
       </c>
     </row>
     <row r="5">
@@ -27624,10 +27624,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>336.0405779692368</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>353.096843815903</v>
       </c>
       <c r="G5" t="n">
         <v>360.657745739193</v>
@@ -27639,7 +27639,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>168.7680975317825</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>211.0348921364722</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>296.3330973359167</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>316.6645794665315</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27703,19 +27703,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>108.2966987865608</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>81.82619054040443</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>56.26549585749488</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>32.30652380083377</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,19 +27745,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>121.2248789850314</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>170.4601574025633</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>177.7117113750172</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>195.7923270853622</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>168.1603872967846</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3324659915077</v>
+        <v>226.7848080616464</v>
       </c>
       <c r="U7" t="n">
         <v>286.0522703910642</v>
@@ -27836,7 +27836,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>269.7705092397209</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.5658555200536</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>285.0667161849569</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>318.7408976405761</v>
       </c>
       <c r="H8" t="n">
-        <v>219.9933489168119</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.7002682295356</v>
+        <v>23.70026822953501</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>87.71439725219717</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>104.8145627250783</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>50.8110594343029</v>
+        <v>50.81105943430232</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>80.23197743692661</v>
       </c>
       <c r="U9" t="n">
-        <v>106.5066225958597</v>
+        <v>106.5066225958592</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>222.5367024223883</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>86.31107513713678</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>99.60414304022851</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>28.8240697018577</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
@@ -28034,7 +28034,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>4.460827879852147</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>127.4029852173488</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.367018638199505</v>
+        <v>1.367018638199504</v>
       </c>
       <c r="H20" t="n">
         <v>13.99997962846068</v>
       </c>
       <c r="I20" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918644</v>
       </c>
       <c r="J20" t="n">
         <v>116.0239981438853</v>
@@ -32481,22 +32481,22 @@
         <v>215.7257937476685</v>
       </c>
       <c r="M20" t="n">
-        <v>240.036511454749</v>
+        <v>240.0365114547489</v>
       </c>
       <c r="N20" t="n">
         <v>243.9205531605333</v>
       </c>
       <c r="O20" t="n">
-        <v>230.327261576937</v>
+        <v>230.3272615769369</v>
       </c>
       <c r="P20" t="n">
-        <v>196.5789889463867</v>
+        <v>196.5789889463866</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.6226339658669</v>
+        <v>147.6226339658668</v>
       </c>
       <c r="R20" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S20" t="n">
         <v>31.15093721797124</v>
@@ -32505,7 +32505,7 @@
         <v>5.984124088718334</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1093614910559604</v>
+        <v>0.1093614910559603</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H21" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I21" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J21" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K21" t="n">
         <v>118.1082018315525</v>
@@ -32572,7 +32572,7 @@
         <v>139.6690358079727</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R21" t="n">
         <v>45.41216571495389</v>
@@ -32581,10 +32581,10 @@
         <v>13.58579554979016</v>
       </c>
       <c r="T21" t="n">
-        <v>2.948133674204761</v>
+        <v>2.94813367420476</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473497</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H22" t="n">
         <v>5.451883225484925</v>
@@ -32630,40 +32630,40 @@
         <v>18.44052117577109</v>
       </c>
       <c r="J22" t="n">
-        <v>43.35306323578347</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K22" t="n">
-        <v>71.24240043118331</v>
+        <v>71.2424004311833</v>
       </c>
       <c r="L22" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M22" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N22" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O22" t="n">
-        <v>86.67267933521431</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P22" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q22" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R22" t="n">
         <v>27.5715894000495</v>
       </c>
       <c r="S22" t="n">
-        <v>10.6863600646775</v>
+        <v>10.68636006467749</v>
       </c>
       <c r="T22" t="n">
-        <v>2.620025680959011</v>
+        <v>2.62002568095901</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03344713635266827</v>
+        <v>0.03344713635266826</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,7 +32712,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K23" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L23" t="n">
         <v>215.7257937476685</v>
@@ -32721,7 +32721,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N23" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O23" t="n">
         <v>230.3272615769369</v>
@@ -32733,13 +32733,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R23" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S23" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T23" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U23" t="n">
         <v>0.1093614910559603</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H24" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I24" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J24" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K24" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L24" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M24" t="n">
         <v>185.3250080074092</v>
@@ -32803,16 +32803,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O24" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P24" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q24" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R24" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S24" t="n">
         <v>13.58579554979016</v>
@@ -32858,37 +32858,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H25" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I25" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J25" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K25" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L25" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M25" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N25" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O25" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P25" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q25" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R25" t="n">
         <v>27.5715894000495</v>
@@ -32949,7 +32949,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K26" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L26" t="n">
         <v>215.7257937476685</v>
@@ -32958,7 +32958,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N26" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O26" t="n">
         <v>230.3272615769369</v>
@@ -32970,13 +32970,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R26" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S26" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T26" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U26" t="n">
         <v>0.1093614910559603</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H27" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I27" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J27" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K27" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L27" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M27" t="n">
         <v>185.3250080074092</v>
@@ -33040,16 +33040,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O27" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P27" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q27" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R27" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S27" t="n">
         <v>13.58579554979016</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H28" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I28" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J28" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K28" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L28" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M28" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N28" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O28" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P28" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R28" t="n">
         <v>27.5715894000495</v>
@@ -33186,7 +33186,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K29" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L29" t="n">
         <v>215.7257937476685</v>
@@ -33195,7 +33195,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N29" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O29" t="n">
         <v>230.3272615769369</v>
@@ -33207,13 +33207,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R29" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S29" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T29" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U29" t="n">
         <v>0.1093614910559603</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H30" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I30" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J30" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K30" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L30" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M30" t="n">
         <v>185.3250080074092</v>
@@ -33277,16 +33277,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O30" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P30" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R30" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S30" t="n">
         <v>13.58579554979016</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H31" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I31" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J31" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K31" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L31" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M31" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N31" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O31" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P31" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R31" t="n">
         <v>27.5715894000495</v>
@@ -33423,7 +33423,7 @@
         <v>116.0239981438853</v>
       </c>
       <c r="K32" t="n">
-        <v>173.8898970988703</v>
+        <v>173.8898970988704</v>
       </c>
       <c r="L32" t="n">
         <v>215.7257937476685</v>
@@ -33432,7 +33432,7 @@
         <v>240.0365114547489</v>
       </c>
       <c r="N32" t="n">
-        <v>243.9205531605332</v>
+        <v>243.9205531605333</v>
       </c>
       <c r="O32" t="n">
         <v>230.3272615769369</v>
@@ -33444,13 +33444,13 @@
         <v>147.6226339658668</v>
       </c>
       <c r="R32" t="n">
-        <v>85.87098453179968</v>
+        <v>85.87098453179969</v>
       </c>
       <c r="S32" t="n">
-        <v>31.15093721797123</v>
+        <v>31.15093721797124</v>
       </c>
       <c r="T32" t="n">
-        <v>5.984124088718333</v>
+        <v>5.984124088718334</v>
       </c>
       <c r="U32" t="n">
         <v>0.1093614910559603</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7314194534479712</v>
+        <v>0.7314194534479713</v>
       </c>
       <c r="H33" t="n">
-        <v>7.063972089879091</v>
+        <v>7.063972089879092</v>
       </c>
       <c r="I33" t="n">
-        <v>25.18264346301129</v>
+        <v>25.1826434630113</v>
       </c>
       <c r="J33" t="n">
-        <v>69.10309845053837</v>
+        <v>69.10309845053838</v>
       </c>
       <c r="K33" t="n">
-        <v>118.1082018315524</v>
+        <v>118.1082018315525</v>
       </c>
       <c r="L33" t="n">
-        <v>158.8110528199202</v>
+        <v>158.8110528199203</v>
       </c>
       <c r="M33" t="n">
         <v>185.3250080074092</v>
@@ -33514,16 +33514,16 @@
         <v>190.2300095175932</v>
       </c>
       <c r="O33" t="n">
-        <v>174.0232942596144</v>
+        <v>174.0232942596145</v>
       </c>
       <c r="P33" t="n">
         <v>139.6690358079727</v>
       </c>
       <c r="Q33" t="n">
-        <v>93.36505163662173</v>
+        <v>93.36505163662174</v>
       </c>
       <c r="R33" t="n">
-        <v>45.41216571495388</v>
+        <v>45.41216571495389</v>
       </c>
       <c r="S33" t="n">
         <v>13.58579554979016</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6131974997989174</v>
+        <v>0.6131974997989175</v>
       </c>
       <c r="H34" t="n">
-        <v>5.451883225484924</v>
+        <v>5.451883225484925</v>
       </c>
       <c r="I34" t="n">
         <v>18.44052117577109</v>
       </c>
       <c r="J34" t="n">
-        <v>43.35306323578345</v>
+        <v>43.35306323578346</v>
       </c>
       <c r="K34" t="n">
         <v>71.2424004311833</v>
       </c>
       <c r="L34" t="n">
-        <v>91.16574465192269</v>
+        <v>91.16574465192271</v>
       </c>
       <c r="M34" t="n">
-        <v>96.12149535484301</v>
+        <v>96.12149535484302</v>
       </c>
       <c r="N34" t="n">
-        <v>93.83594103741075</v>
+        <v>93.83594103741078</v>
       </c>
       <c r="O34" t="n">
-        <v>86.67267933521428</v>
+        <v>86.6726793352143</v>
       </c>
       <c r="P34" t="n">
-        <v>74.1634503393163</v>
+        <v>74.16345033931631</v>
       </c>
       <c r="Q34" t="n">
-        <v>51.34692882407116</v>
+        <v>51.34692882407117</v>
       </c>
       <c r="R34" t="n">
         <v>27.5715894000495</v>
@@ -34704,16 +34704,16 @@
         <v>54.19701966463789</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>47.94769843361666</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54.19701966463789</v>
       </c>
       <c r="P2" t="n">
         <v>54.19701966463789</v>
@@ -34783,16 +34783,16 @@
         <v>54.19701966463789</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.53925033830414</v>
       </c>
       <c r="N3" t="n">
-        <v>44.53925033830414</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34938,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>52.00724109232928</v>
       </c>
       <c r="L5" t="n">
-        <v>47.94769843361666</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="N5" t="n">
         <v>54.19701966463789</v>
@@ -34953,10 +34953,10 @@
         <v>54.19701966463789</v>
       </c>
       <c r="P5" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>54.19701966463789</v>
       </c>
       <c r="L6" t="n">
+        <v>44.53925033830414</v>
+      </c>
+      <c r="M6" t="n">
         <v>54.19701966463789</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>44.53925033830414</v>
+        <v>54.19701966463789</v>
       </c>
       <c r="O6" t="n">
-        <v>54.19701966463789</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4.158309057767501</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>118.1505544713415</v>
+        <v>0.09876639905543255</v>
       </c>
       <c r="M8" t="n">
-        <v>118.1505544713415</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="N8" t="n">
-        <v>118.1505544713415</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="P8" t="n">
         <v>109.2184856369541</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>118.1505544713415</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>23.91065442928443</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="O9" t="n">
-        <v>118.1505544713415</v>
+        <v>118.1505544713421</v>
       </c>
       <c r="P9" t="n">
-        <v>118.1505544713415</v>
+        <v>23.91065442928489</v>
       </c>
       <c r="Q9" t="n">
         <v>81.99814951141209</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.57108920456356</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>258.7566453246343</v>
+        <v>188.1421867688705</v>
       </c>
       <c r="L12" t="n">
         <v>409.3944916501405</v>
       </c>
       <c r="M12" t="n">
-        <v>383.892043473114</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N12" t="n">
         <v>560.687909553639</v>
@@ -35734,10 +35734,10 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M15" t="n">
-        <v>531.0775912334414</v>
+        <v>383.892043473114</v>
       </c>
       <c r="N15" t="n">
-        <v>413.5023617933115</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O15" t="n">
         <v>444.6087679740799</v>
@@ -35889,7 +35889,7 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L17" t="n">
-        <v>420.2212022843995</v>
+        <v>420.2212022843994</v>
       </c>
       <c r="M17" t="n">
         <v>482.9430088907039</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>258.7566453246342</v>
@@ -35974,7 +35974,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N18" t="n">
-        <v>413.5023617933115</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O18" t="n">
         <v>444.6087679740799</v>
@@ -35983,7 +35983,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q18" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922697</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,13 +36126,13 @@
         <v>296.4135214040257</v>
       </c>
       <c r="L20" t="n">
-        <v>420.2212022843994</v>
+        <v>420.2212022843993</v>
       </c>
       <c r="M20" t="n">
-        <v>482.9430088907039</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N20" t="n">
-        <v>475.0836175423207</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O20" t="n">
         <v>402.0136939540475</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.57108920456355</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K21" t="n">
         <v>258.7566453246342</v>
@@ -36208,19 +36208,19 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M21" t="n">
-        <v>531.0775912334414</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N21" t="n">
         <v>560.6879095536389</v>
       </c>
       <c r="O21" t="n">
-        <v>297.4232202137528</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P21" t="n">
-        <v>340.2452679645354</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.3632011480339</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334995</v>
       </c>
       <c r="L22" t="n">
         <v>128.626874880932</v>
@@ -36296,7 +36296,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P22" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>482.9430088907038</v>
       </c>
       <c r="N23" t="n">
-        <v>475.083617542321</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O23" t="n">
         <v>402.0136939540475</v>
@@ -36378,7 +36378,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.57108920456352</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L24" t="n">
-        <v>409.3944916501404</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M24" t="n">
         <v>531.0775912334412</v>
@@ -36454,10 +36454,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P24" t="n">
-        <v>193.0597202042091</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q24" t="n">
-        <v>175.3632011480338</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36527,13 +36527,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N25" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O25" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P25" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>258.7566453246342</v>
       </c>
       <c r="L27" t="n">
-        <v>338.7800330943763</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M27" t="n">
         <v>531.0775912334412</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>175.3632011480338</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,13 +36764,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N28" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O28" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P28" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>258.7566453246342</v>
       </c>
       <c r="L30" t="n">
-        <v>338.7800330943763</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M30" t="n">
         <v>531.0775912334412</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q30" t="n">
-        <v>175.3632011480338</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,13 +37001,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N31" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O31" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P31" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>305.7974745833408</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.6821766245794</v>
+        <v>151.6821766245795</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K33" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L33" t="n">
-        <v>338.7800330943763</v>
+        <v>409.3944916501405</v>
       </c>
       <c r="M33" t="n">
         <v>531.0775912334412</v>
@@ -37165,10 +37165,10 @@
         <v>444.6087679740798</v>
       </c>
       <c r="P33" t="n">
-        <v>340.2452679645353</v>
+        <v>193.0597202042087</v>
       </c>
       <c r="Q33" t="n">
-        <v>175.3632011480338</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,13 +37238,13 @@
         <v>146.3189033517516</v>
       </c>
       <c r="N34" t="n">
-        <v>148.0329607020486</v>
+        <v>148.0329607020487</v>
       </c>
       <c r="O34" t="n">
-        <v>121.2408873651853</v>
+        <v>121.2408873651854</v>
       </c>
       <c r="P34" t="n">
-        <v>80.28547223800014</v>
+        <v>80.28547223800015</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>115.3647210093227</v>
+        <v>115.3647210093231</v>
       </c>
       <c r="K35" t="n">
         <v>296.4135214040257</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K36" t="n">
         <v>258.7566453246342</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7487425922706</v>
+        <v>28.17765338770756</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>115.3647210093229</v>
       </c>
       <c r="K38" t="n">
-        <v>296.4135214040257</v>
+        <v>296.4135214040255</v>
       </c>
       <c r="L38" t="n">
         <v>420.2212022843993</v>
       </c>
       <c r="M38" t="n">
-        <v>482.9430088907037</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N38" t="n">
         <v>475.0836175423206</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>258.7566453246342</v>
@@ -37636,7 +37636,7 @@
         <v>560.6879095536389</v>
       </c>
       <c r="O39" t="n">
-        <v>297.4232202137528</v>
+        <v>373.9943094183163</v>
       </c>
       <c r="P39" t="n">
         <v>340.2452679645353</v>
@@ -37797,7 +37797,7 @@
         <v>402.0136939540475</v>
       </c>
       <c r="P41" t="n">
-        <v>305.7974745833409</v>
+        <v>305.7974745833408</v>
       </c>
       <c r="Q41" t="n">
         <v>151.6821766245795</v>
@@ -37861,7 +37861,7 @@
         <v>76.57108920456353</v>
       </c>
       <c r="K42" t="n">
-        <v>111.5710975643069</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L42" t="n">
         <v>409.3944916501405</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.3632011480339</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
